--- a/data/trans_orig/P25F_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Habitat-trans_orig.xlsx
@@ -788,19 +788,19 @@
         <v>9922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3499</v>
+        <v>3515</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15408</v>
+        <v>15708</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5400482440484011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1904663977927606</v>
+        <v>0.191315102444567</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.838668424361563</v>
+        <v>0.8550141089080368</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>9922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3444</v>
+        <v>3583</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17048</v>
+        <v>16962</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4219680064470745</v>
+        <v>0.4219680064470746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1464823764053062</v>
+        <v>0.152381668619526</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7250539705755549</v>
+        <v>0.7213915605332565</v>
       </c>
     </row>
     <row r="6">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7121</v>
+        <v>7297</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1039011384855686</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3875979047582654</v>
+        <v>0.397173593984754</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -872,19 +872,19 @@
         <v>2382</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>676</v>
+        <v>639</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4438</v>
+        <v>4272</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4633895098008227</v>
+        <v>0.4633895098008226</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1315173543009108</v>
+        <v>0.1242616958737286</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8632190314386705</v>
+        <v>0.8310385534391838</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -893,19 +893,19 @@
         <v>4291</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1228</v>
+        <v>1238</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10107</v>
+        <v>9719</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1825023982204576</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05221612857899043</v>
+        <v>0.05264901665596283</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4298585653617714</v>
+        <v>0.4133319777225283</v>
       </c>
     </row>
     <row r="7">
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9652</v>
+        <v>8477</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1058339852195909</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5253687471664069</v>
+        <v>0.4614020353762074</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2801</v>
+        <v>2785</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1294805309456966</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5447878721398994</v>
+        <v>0.5416416373789591</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9296</v>
+        <v>9410</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1110042450409319</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3953690299284546</v>
+        <v>0.4002008669176331</v>
       </c>
     </row>
     <row r="8">
@@ -993,19 +993,19 @@
         <v>4597</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1145</v>
+        <v>861</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11696</v>
+        <v>10519</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2502166322464393</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06231640543266341</v>
+        <v>0.0468574209432681</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6366209410118746</v>
+        <v>0.5725794379086351</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1014,19 +1014,19 @@
         <v>2093</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4000</v>
+        <v>3840</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4071299592534809</v>
+        <v>0.4071299592534808</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09008499780609397</v>
+        <v>0.08106139023676047</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7780325119924368</v>
+        <v>0.7469578053240794</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1035,19 +1035,19 @@
         <v>6690</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2477</v>
+        <v>2523</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12992</v>
+        <v>12290</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2845253502915359</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1053550092342533</v>
+        <v>0.1073089443056354</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5525661397319571</v>
+        <v>0.5227061917967826</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9594</v>
+        <v>9517</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07153405139807517</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2639604363185614</v>
+        <v>0.2618182581257382</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9146</v>
+        <v>8131</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1429168986514466</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5644093227020649</v>
+        <v>0.5017982624258464</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1181,19 +1181,19 @@
         <v>4916</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13551</v>
+        <v>14639</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09354424387689825</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02264454399714206</v>
+        <v>0.02239278967859005</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.257853121022352</v>
+        <v>0.2785533701107413</v>
       </c>
     </row>
     <row r="11">
@@ -1210,19 +1210,19 @@
         <v>20277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11545</v>
+        <v>11507</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27600</v>
+        <v>28274</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.557857005703532</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3176183193140475</v>
+        <v>0.3165769635188682</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7593385775930408</v>
+        <v>0.7778607792758137</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1231,19 +1231,19 @@
         <v>4911</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1595</v>
+        <v>1312</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10283</v>
+        <v>9983</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3030819393644938</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0984492617167345</v>
+        <v>0.08095178597755123</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6346200737256853</v>
+        <v>0.6160984269461759</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -1252,19 +1252,19 @@
         <v>25188</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15458</v>
+        <v>15681</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34256</v>
+        <v>35216</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4792996426296978</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2941392167451199</v>
+        <v>0.2983819574709069</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6518446374762373</v>
+        <v>0.6701088038273867</v>
       </c>
     </row>
     <row r="12">
@@ -1281,19 +1281,19 @@
         <v>8709</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2872</v>
+        <v>3304</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17914</v>
+        <v>17606</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2395886272354041</v>
+        <v>0.239588627235404</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07900040775915713</v>
+        <v>0.09091228263603071</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4928463998595037</v>
+        <v>0.484377980885597</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1302,19 +1302,19 @@
         <v>2597</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>524</v>
+        <v>622</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5734</v>
+        <v>6031</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1602748822732404</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03233654272505139</v>
+        <v>0.0383908503737718</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3538451991444818</v>
+        <v>0.372176308387813</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1323,19 +1323,19 @@
         <v>11306</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5670</v>
+        <v>4752</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21891</v>
+        <v>19709</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2151330211619008</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1078887497177854</v>
+        <v>0.09042646183799553</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4165623151063523</v>
+        <v>0.3750326283696281</v>
       </c>
     </row>
     <row r="13">
@@ -1368,16 +1368,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3765</v>
+        <v>4396</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04964306331039666</v>
+        <v>0.04964306331039665</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2323265246538116</v>
+        <v>0.2713204030962683</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4553</v>
+        <v>4970</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01530694586644726</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08662984598615052</v>
+        <v>0.09456749363201163</v>
       </c>
     </row>
     <row r="14">
@@ -1415,19 +1415,19 @@
         <v>4762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1294</v>
+        <v>1264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12207</v>
+        <v>11320</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1310203156629889</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0355996011858867</v>
+        <v>0.03476750267008041</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3358397862138511</v>
+        <v>0.3114396423786214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1436,19 +1436,19 @@
         <v>5576</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2304</v>
+        <v>2456</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10221</v>
+        <v>9831</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3440832164004226</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1422010898863514</v>
+        <v>0.1515690649962142</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6307582652006245</v>
+        <v>0.6067244213187911</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1457,19 +1457,19 @@
         <v>10338</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5411</v>
+        <v>5132</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18237</v>
+        <v>17973</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.196716146465056</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.102970511143089</v>
+        <v>0.09766026702913086</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3470295984270615</v>
+        <v>0.3420036304192535</v>
       </c>
     </row>
     <row r="15">
@@ -1577,16 +1577,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5956</v>
+        <v>6057</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07570844444867587</v>
+        <v>0.07570844444867589</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2638729862469392</v>
+        <v>0.2683198620709615</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7019</v>
+        <v>5828</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03809630359681734</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1564685998162502</v>
+        <v>0.1299164375872531</v>
       </c>
     </row>
     <row r="17">
@@ -1624,19 +1624,19 @@
         <v>8175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2654</v>
+        <v>3089</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15285</v>
+        <v>15918</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3668434369070064</v>
+        <v>0.3668434369070065</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1190869600178592</v>
+        <v>0.1386065111221986</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6858376843503985</v>
+        <v>0.7142393757987177</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1645,19 +1645,19 @@
         <v>4518</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>728</v>
+        <v>1060</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12072</v>
+        <v>11994</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2001295622574819</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03227015634154208</v>
+        <v>0.04696427900302896</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5348166385895256</v>
+        <v>0.5313550565380611</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1666,19 +1666,19 @@
         <v>12693</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5969</v>
+        <v>5439</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23392</v>
+        <v>21455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2829534239936436</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.133048726611015</v>
+        <v>0.1212415069508651</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.521433808936597</v>
+        <v>0.4782691489859506</v>
       </c>
     </row>
     <row r="18">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7538</v>
+        <v>6200</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05146299672358778</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3382286223889187</v>
+        <v>0.2782182778506829</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1716,19 +1716,19 @@
         <v>4273</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1293</v>
+        <v>1345</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10164</v>
+        <v>9830</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.189301432588713</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05727462539759007</v>
+        <v>0.05959819916024477</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4502639950431233</v>
+        <v>0.4354569321276078</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1737,19 +1737,19 @@
         <v>5420</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1974</v>
+        <v>1906</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13280</v>
+        <v>12548</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1208229596480418</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04401444379822259</v>
+        <v>0.04248594866182034</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2960338020229225</v>
+        <v>0.2797183342460504</v>
       </c>
     </row>
     <row r="19">
@@ -1766,19 +1766,19 @@
         <v>6727</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1469</v>
+        <v>2029</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14495</v>
+        <v>13993</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3018512426312209</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06593217561853557</v>
+        <v>0.09104736978336436</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6504064173487452</v>
+        <v>0.6278821090196213</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1787,19 +1787,19 @@
         <v>4063</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>750</v>
+        <v>783</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9780</v>
+        <v>10374</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1800083090669365</v>
+        <v>0.1800083090669366</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03321351976475163</v>
+        <v>0.03467053370033678</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4332518882438174</v>
+        <v>0.4595649919494166</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1808,19 +1808,19 @@
         <v>10791</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4081</v>
+        <v>4651</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20792</v>
+        <v>20223</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2405401772409056</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09096291581110505</v>
+        <v>0.1036747238051842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4634756051609472</v>
+        <v>0.4507934068658646</v>
       </c>
     </row>
     <row r="20">
@@ -1837,19 +1837,19 @@
         <v>6237</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1322</v>
+        <v>1405</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13059</v>
+        <v>13269</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2798423237381847</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05930024798810255</v>
+        <v>0.06303147231439386</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5859783247577796</v>
+        <v>0.5953743907220133</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1858,19 +1858,19 @@
         <v>8010</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2766</v>
+        <v>3008</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14022</v>
+        <v>13748</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3548522516381927</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1225455272148463</v>
+        <v>0.1332740975077158</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6212038962571729</v>
+        <v>0.6090455068711098</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1879,19 +1879,19 @@
         <v>14247</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7368</v>
+        <v>7464</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23032</v>
+        <v>23550</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3175871355205917</v>
+        <v>0.3175871355205916</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.164249191203846</v>
+        <v>0.1663802195270373</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5134292795066555</v>
+        <v>0.5249772523589715</v>
       </c>
     </row>
     <row r="21">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7007</v>
+        <v>6373</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03499035151958695</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2220583131591999</v>
+        <v>0.2019765343519916</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2725</v>
+        <v>2896</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02063619774794472</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1234440268472836</v>
+        <v>0.1311561323947766</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2028,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6258</v>
+        <v>7421</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02908147651356931</v>
+        <v>0.02908147651356932</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1166808427643375</v>
+        <v>0.1383714549814531</v>
       </c>
     </row>
     <row r="23">
@@ -2054,19 +2054,19 @@
         <v>14320</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5984</v>
+        <v>6308</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22658</v>
+        <v>22990</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4538104953195223</v>
+        <v>0.4538104953195222</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1896308962597089</v>
+        <v>0.1999161023734899</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.718078444202232</v>
+        <v>0.7286046782235904</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2075,19 +2075,19 @@
         <v>7639</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3116</v>
+        <v>3284</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12669</v>
+        <v>12729</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3460324550238172</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1411534808196175</v>
+        <v>0.1487483011382787</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5738558075011551</v>
+        <v>0.5765789393761166</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -2096,19 +2096,19 @@
         <v>21958</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12460</v>
+        <v>12919</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32133</v>
+        <v>32025</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4094437580926302</v>
+        <v>0.4094437580926303</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.232335043091782</v>
+        <v>0.2408846641764112</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5991682902041953</v>
+        <v>0.5971556323396578</v>
       </c>
     </row>
     <row r="24">
@@ -2125,19 +2125,19 @@
         <v>6224</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1826</v>
+        <v>2301</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13324</v>
+        <v>14060</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1972486866929083</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05786384767947522</v>
+        <v>0.07291156231183453</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4222724984236756</v>
+        <v>0.445574550800343</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2146,19 +2146,19 @@
         <v>4001</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9016</v>
+        <v>9674</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1812467728265922</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04215686309048985</v>
+        <v>0.04233094504245567</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4083975411012851</v>
+        <v>0.4381957968362481</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2167,19 +2167,19 @@
         <v>10225</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5006</v>
+        <v>5062</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18929</v>
+        <v>19116</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1906615126666749</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09334263861059137</v>
+        <v>0.09438181997536588</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3529569829233042</v>
+        <v>0.3564506923380202</v>
       </c>
     </row>
     <row r="25">
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7997</v>
+        <v>7187</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06972647773911798</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2534505475082262</v>
+        <v>0.2277603075801711</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2217,19 +2217,19 @@
         <v>5357</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2044</v>
+        <v>1949</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11456</v>
+        <v>11952</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2426327051033921</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09257566160398502</v>
+        <v>0.08830407794884179</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5189046988155152</v>
+        <v>0.5413709011272729</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2238,19 +2238,19 @@
         <v>7557</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3034</v>
+        <v>2921</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15027</v>
+        <v>15857</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1409031769379222</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05657505458903257</v>
+        <v>0.05446471880476053</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2801976511274004</v>
+        <v>0.2956797582518447</v>
       </c>
     </row>
     <row r="26">
@@ -2267,19 +2267,19 @@
         <v>7706</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2958</v>
+        <v>2616</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15947</v>
+        <v>15164</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2442239887288646</v>
+        <v>0.2442239887288645</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09372852100948809</v>
+        <v>0.08291279662329587</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5053904586431626</v>
+        <v>0.4805756004859922</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2288,19 +2288,19 @@
         <v>4624</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1767</v>
+        <v>1642</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9222</v>
+        <v>9442</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2094518692982538</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08004966084349584</v>
+        <v>0.07439303370743675</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4177357164630389</v>
+        <v>0.4276755453599255</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2309,19 +2309,19 @@
         <v>12330</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6248</v>
+        <v>5993</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21092</v>
+        <v>21123</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2299100757892034</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1165083660083677</v>
+        <v>0.1117491439349682</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3932956917352949</v>
+        <v>0.3938560966017112</v>
       </c>
     </row>
     <row r="27">
@@ -2413,19 +2413,19 @@
         <v>3704</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1089</v>
+        <v>1026</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10347</v>
+        <v>9388</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.03412136360381401</v>
+        <v>0.034121363603814</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01003149189862108</v>
+        <v>0.009454793442129751</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09530768879513311</v>
+        <v>0.08648038848980545</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2434,19 +2434,19 @@
         <v>4480</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1141</v>
+        <v>1065</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13713</v>
+        <v>13211</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.06788975476281038</v>
+        <v>0.06788975476281037</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01729413654765912</v>
+        <v>0.01613839703622643</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2077857062693119</v>
+        <v>0.2001780382015587</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2455,19 +2455,19 @@
         <v>8185</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3300</v>
+        <v>3620</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>18763</v>
+        <v>17801</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0468883979815534</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0189025679798316</v>
+        <v>0.02073745361507094</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1074899164194992</v>
+        <v>0.101979285018292</v>
       </c>
     </row>
     <row r="29">
@@ -2484,19 +2484,19 @@
         <v>52694</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38391</v>
+        <v>39139</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>68729</v>
+        <v>69559</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4853881452378659</v>
+        <v>0.4853881452378658</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3536348659839759</v>
+        <v>0.360525076970941</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6330957226062459</v>
+        <v>0.6407448888351645</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -2505,19 +2505,19 @@
         <v>17068</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9898</v>
+        <v>9950</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26164</v>
+        <v>26488</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2586256810624503</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1499788636826419</v>
+        <v>0.1507679041134311</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3964481208201629</v>
+        <v>0.4013574567074353</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>38</v>
@@ -2526,19 +2526,19 @@
         <v>69762</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>53895</v>
+        <v>53278</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>89046</v>
+        <v>87652</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3996545915699666</v>
+        <v>0.3996545915699667</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3087548772340608</v>
+        <v>0.3052221694411867</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5101287107826029</v>
+        <v>0.5021448329221202</v>
       </c>
     </row>
     <row r="30">
@@ -2555,19 +2555,19 @@
         <v>17988</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9784</v>
+        <v>8931</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29999</v>
+        <v>28913</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1656992670538537</v>
+        <v>0.1656992670538536</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09012803854566084</v>
+        <v>0.0822674934883915</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2763370972176566</v>
+        <v>0.2663274986577306</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>15</v>
@@ -2576,19 +2576,19 @@
         <v>13254</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7995</v>
+        <v>7710</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22120</v>
+        <v>21631</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2008312862060588</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1211467030527291</v>
+        <v>0.1168282571066376</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3351741042832903</v>
+        <v>0.3277598751785977</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2597,19 +2597,19 @@
         <v>31242</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20681</v>
+        <v>21597</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>46308</v>
+        <v>45120</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.178981857099785</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1184757658655104</v>
+        <v>0.123724807321798</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2652945688531598</v>
+        <v>0.2584883378929023</v>
       </c>
     </row>
     <row r="31">
@@ -2626,19 +2626,19 @@
         <v>10872</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4857</v>
+        <v>4196</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22670</v>
+        <v>24415</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1001441449018378</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04474119560421597</v>
+        <v>0.03865027043066363</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2088278479735856</v>
+        <v>0.2248952376683952</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>10</v>
@@ -2647,19 +2647,19 @@
         <v>10890</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5371</v>
+        <v>5334</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19886</v>
+        <v>20190</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1650125647044539</v>
+        <v>0.1650125647044538</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08138483250670514</v>
+        <v>0.08081690697400946</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3013274851572186</v>
+        <v>0.305935194596237</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>17</v>
@@ -2668,19 +2668,19 @@
         <v>21762</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>12977</v>
+        <v>12738</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>35492</v>
+        <v>35614</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1246693685570072</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07434456295316844</v>
+        <v>0.07297340694573436</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2033274837879132</v>
+        <v>0.2040299006905538</v>
       </c>
     </row>
     <row r="32">
@@ -2697,19 +2697,19 @@
         <v>23302</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13524</v>
+        <v>13569</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>35754</v>
+        <v>35631</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2146470792026287</v>
+        <v>0.2146470792026286</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1245806874846625</v>
+        <v>0.124987141710144</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3293463043592925</v>
+        <v>0.3282154216029717</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>24</v>
@@ -2718,19 +2718,19 @@
         <v>20303</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13146</v>
+        <v>13105</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29943</v>
+        <v>29613</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3076407132642268</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1991951913102173</v>
+        <v>0.1985708256357639</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4537160104981279</v>
+        <v>0.4487212412128646</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>42</v>
@@ -2739,19 +2739,19 @@
         <v>43605</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>31356</v>
+        <v>31540</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>58478</v>
+        <v>58435</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.2498057847916878</v>
+        <v>0.2498057847916877</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1796311194607804</v>
+        <v>0.1806864786441118</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3350098208929416</v>
+        <v>0.3347661419762137</v>
       </c>
     </row>
     <row r="33">
